--- a/List_Case/removeCls/removeCls_diagram.xlsx
+++ b/List_Case/removeCls/removeCls_diagram.xlsx
@@ -43,10 +43,10 @@
     <t>X: file does not exist</t>
   </si>
   <si>
-    <t>jobclass running</t>
+    <t>job running</t>
   </si>
   <si>
-    <t>jobclass stopped</t>
+    <t>job wait</t>
   </si>
   <si>
     <r>
@@ -67,11 +67,45 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-- Existed class of job and then remove class file</t>
+- Existed class file and then remove it.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remove data into map/list corresponding to jobclass</t>
     </r>
   </si>
   <si>
     <r>
+      <t xml:space="preserve">1 Case:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Existed class file and job. Then remove class file.
+   </t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -79,6 +113,27 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Remove data into map/list corresponding to jobclass</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
       <t>1 Case:</t>
     </r>
     <r>
@@ -89,7 +144,115 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-- Existed class of job and instances. 
+- Existed class file, job, trigger. 
+   Instance has </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>not define schedule.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   Then remove class file.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Remove data into map/list corresponding to jobclass</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 Case:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Existed class of job and schedule
+   Then remove class file
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Job can not execute
+         Remove data into map/list corresponding to jobclass
+         </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 Case:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Existed class of job, instances
    Instances has </t>
     </r>
     <r>
@@ -110,7 +273,28 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-   Then remove class file.</t>
+   Then remove class file.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Job and instances can not execute
+         Remove data into map/list corresponding to jobclass</t>
     </r>
   </si>
   <si>
@@ -154,88 +338,29 @@
       </rPr>
       <t xml:space="preserve">
    Then remove class file.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Job can not execute
+         Remove data into map/list corresponding to jobclass
 - Existed class of job, trigger and instances. 
    Instances has </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>not define schedule.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   Then remove class file.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 Case:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- Existed class file and then remove it.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 Case:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>- Existed class file and job. Then remove class file.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 Case:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- Existed class file, job, trigger. 
-   Instance has </t>
     </r>
     <r>
       <rPr>
@@ -257,6 +382,26 @@
       <t xml:space="preserve">
    Then remove class file.
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Job and instances can not execute
+        Remove data into map/list corresponding to jobclass</t>
     </r>
   </si>
 </sst>
@@ -455,16 +600,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -475,42 +656,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -812,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M35"/>
+  <dimension ref="B2:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -829,483 +974,463 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="22"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="22"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="2:13" ht="14.25" customHeight="1">
       <c r="B4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
+      <c r="G4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="2:13" ht="14.25" customHeight="1">
       <c r="B5" s="23"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
-    </row>
-    <row r="6" spans="2:13">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="2:13" ht="14.25" customHeight="1">
       <c r="B6" s="23"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="14.25" customHeight="1">
       <c r="B7" s="23"/>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="2:13" ht="14.25" customHeight="1">
       <c r="B8" s="23"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="2:13" ht="14.25" customHeight="1">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9" s="23"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="2:13">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="2:13" ht="14.25" customHeight="1">
       <c r="B10" s="23"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="2:13">
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="2:13" ht="14.25" customHeight="1">
       <c r="B11" s="23"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="2:13">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="2:13" ht="14.25" customHeight="1">
       <c r="B12" s="23"/>
-      <c r="C12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="2:13">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="2:13" ht="14.25" customHeight="1">
       <c r="B13" s="23"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="2:13">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="2:13" ht="14.25" customHeight="1">
       <c r="B14" s="23"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="23"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="23"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="23"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="23"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="23"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="23"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="23"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="23"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="23"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="23"/>
-      <c r="C24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="23"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="23"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="23"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="23"/>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B29" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="23"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="2:13">
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="2:13" ht="14.25" customHeight="1">
       <c r="B30" s="23"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="23"/>
@@ -1313,13 +1438,13 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="23"/>
@@ -1327,66 +1452,254 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="34" spans="5:6">
-      <c r="E34" s="2" t="s">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="23"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="23"/>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="23"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="23"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="23"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="23"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="23"/>
+      <c r="C39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="23"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="23"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="23"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="23"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="23"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="E46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="5:6">
-      <c r="E35" s="2" t="s">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="E47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="38">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B19"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B20:B32"/>
-    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="B4:B28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="B29:B44"/>
+    <mergeCell ref="D17:D28"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C17:C28"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
     <mergeCell ref="G2:M3"/>
-    <mergeCell ref="E12:E19"/>
-    <mergeCell ref="G12:M19"/>
-    <mergeCell ref="G7:M11"/>
-    <mergeCell ref="G4:M6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="E17:E28"/>
+    <mergeCell ref="G17:M28"/>
+    <mergeCell ref="G10:M16"/>
+    <mergeCell ref="G4:M9"/>
+    <mergeCell ref="E10:E16"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G20:M23"/>
-    <mergeCell ref="G24:M27"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="G28:M32"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="F17:F28"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="G29:M33"/>
+    <mergeCell ref="G34:M38"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="G39:M44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
